--- a/data/fact_data/Aurangabad/Aurangabad_sec_May_19.xlsx
+++ b/data/fact_data/Aurangabad/Aurangabad_sec_May_19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nitin.karmuse/Desktop/win_medicare/data/fact_data/Aurangabad/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{181DECE0-A61B-154D-BBA8-C5A5006A61E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08360DC9-4E6F-5946-998B-B7CF547B79DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Abad_Anil_May_19" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2376" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2372" uniqueCount="90">
   <si>
     <t>Betadine Sol. 500ml              5%</t>
   </si>
@@ -1942,7 +1942,7 @@
   <dimension ref="A1:K73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C70"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -8191,7 +8191,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF69DF1-D5BD-C64B-8631-4B6A1C8B16E7}">
   <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -16403,10 +16403,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A9EAFA3-E02B-4F4D-8A66-959CE6DDEAF3}">
-  <dimension ref="A1:K73"/>
+  <dimension ref="A1:K72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C70"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -17160,12 +17160,15 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="4" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
+      <c r="D27">
+        <v>830</v>
+      </c>
       <c r="E27">
-        <f t="shared" ref="E27:E70" si="1">D28*B27</f>
+        <f t="shared" ref="E27:E69" si="1">D28*B27</f>
         <v>0</v>
       </c>
       <c r="F27" s="24" t="s">
@@ -17184,12 +17187,12 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28">
-        <v>830</v>
+        <v>430</v>
       </c>
       <c r="E28">
         <f t="shared" si="1"/>
@@ -17207,16 +17210,16 @@
       <c r="I28">
         <v>2019</v>
       </c>
-      <c r="J28" s="28"/>
+      <c r="J28" s="30"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="4" t="s">
-        <v>28</v>
+      <c r="A29" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29">
-        <v>430</v>
+        <v>360</v>
       </c>
       <c r="E29">
         <f t="shared" si="1"/>
@@ -17234,16 +17237,16 @@
       <c r="I29">
         <v>2019</v>
       </c>
-      <c r="J29" s="30"/>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="6" t="s">
-        <v>23</v>
+      <c r="J29" s="10"/>
+    </row>
+    <row r="30" spans="1:10" ht="14">
+      <c r="A30" s="10" t="s">
+        <v>56</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30">
-        <v>360</v>
+        <v>269</v>
       </c>
       <c r="E30">
         <f t="shared" si="1"/>
@@ -17261,20 +17264,24 @@
       <c r="I30">
         <v>2019</v>
       </c>
-      <c r="J30" s="10"/>
-    </row>
-    <row r="31" spans="1:10" ht="14">
-      <c r="A31" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
+      <c r="J30" s="11"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="2">
+        <v>3</v>
+      </c>
+      <c r="C31" s="2">
+        <v>2</v>
+      </c>
       <c r="D31">
-        <v>269</v>
+        <v>633</v>
       </c>
       <c r="E31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2367</v>
       </c>
       <c r="F31" s="24" t="s">
         <v>65</v>
@@ -17288,24 +17295,20 @@
       <c r="I31">
         <v>2019</v>
       </c>
-      <c r="J31" s="11"/>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="B32" s="2">
-        <v>3</v>
-      </c>
-      <c r="C32" s="2">
-        <v>2</v>
-      </c>
+      <c r="J31" s="10"/>
+    </row>
+    <row r="32" spans="1:10" ht="14">
+      <c r="A32" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
       <c r="D32">
-        <v>633</v>
+        <v>789</v>
       </c>
       <c r="E32">
         <f t="shared" si="1"/>
-        <v>2367</v>
+        <v>0</v>
       </c>
       <c r="F32" s="24" t="s">
         <v>65</v>
@@ -17323,12 +17326,12 @@
     </row>
     <row r="33" spans="1:10" ht="14">
       <c r="A33" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33">
-        <v>789</v>
+        <v>865</v>
       </c>
       <c r="E33">
         <f t="shared" si="1"/>
@@ -17346,16 +17349,16 @@
       <c r="I33">
         <v>2019</v>
       </c>
-      <c r="J33" s="10"/>
-    </row>
-    <row r="34" spans="1:10" ht="14">
-      <c r="A34" s="10" t="s">
-        <v>58</v>
+      <c r="J33" s="32"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="12" t="s">
+        <v>14</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="E34">
         <f t="shared" si="1"/>
@@ -17373,20 +17376,19 @@
       <c r="I34">
         <v>2019</v>
       </c>
-      <c r="J34" s="32"/>
+      <c r="J34" s="13"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B35" s="2"/>
+      <c r="A35" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="2">
+        <v>2</v>
+      </c>
       <c r="C35" s="2"/>
-      <c r="D35">
-        <v>863</v>
-      </c>
       <c r="E35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2272</v>
       </c>
       <c r="F35" s="24" t="s">
         <v>65</v>
@@ -17400,19 +17402,22 @@
       <c r="I35">
         <v>2019</v>
       </c>
-      <c r="J35" s="13"/>
+      <c r="J35" s="28"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" s="2">
-        <v>2</v>
-      </c>
-      <c r="C36" s="2"/>
+      <c r="A36" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>1136</v>
+      </c>
       <c r="E36">
         <f t="shared" si="1"/>
-        <v>2272</v>
+        <v>0</v>
       </c>
       <c r="F36" s="24" t="s">
         <v>65</v>
@@ -17430,14 +17435,14 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2">
         <v>1</v>
       </c>
       <c r="D37">
-        <v>1136</v>
+        <v>1367</v>
       </c>
       <c r="E37">
         <f t="shared" si="1"/>
@@ -17459,18 +17464,20 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B38" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="B38" s="2">
+        <v>1</v>
+      </c>
       <c r="C38" s="2">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D38">
-        <v>1367</v>
+        <v>955</v>
       </c>
       <c r="E38">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="F38" s="24" t="s">
         <v>65</v>
@@ -17488,20 +17495,16 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B39" s="2">
-        <v>1</v>
-      </c>
-      <c r="C39" s="2">
-        <v>26</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
       <c r="D39">
-        <v>955</v>
+        <v>168</v>
       </c>
       <c r="E39">
         <f t="shared" si="1"/>
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="F39" s="24" t="s">
         <v>65</v>
@@ -17515,16 +17518,18 @@
       <c r="I39">
         <v>2019</v>
       </c>
-      <c r="J39" s="28"/>
+      <c r="J39" s="27"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="4" t="s">
-        <v>24</v>
+      <c r="A40" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
+      <c r="C40" s="2">
+        <v>4</v>
+      </c>
       <c r="D40">
-        <v>168</v>
+        <v>1287</v>
       </c>
       <c r="E40">
         <f t="shared" si="1"/>
@@ -17546,14 +17551,14 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2">
         <v>4</v>
       </c>
       <c r="D41">
-        <v>1287</v>
+        <v>1358</v>
       </c>
       <c r="E41">
         <f t="shared" si="1"/>
@@ -17571,18 +17576,16 @@
       <c r="I41">
         <v>2019</v>
       </c>
-      <c r="J41" s="27"/>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="3" t="s">
-        <v>19</v>
+      <c r="J41" s="14"/>
+    </row>
+    <row r="42" spans="1:10" ht="14">
+      <c r="A42" s="14" t="s">
+        <v>47</v>
       </c>
       <c r="B42" s="2"/>
-      <c r="C42" s="2">
-        <v>4</v>
-      </c>
+      <c r="C42" s="2"/>
       <c r="D42">
-        <v>1358</v>
+        <v>1270</v>
       </c>
       <c r="E42">
         <f t="shared" si="1"/>
@@ -17604,12 +17607,12 @@
     </row>
     <row r="43" spans="1:10" ht="14">
       <c r="A43" s="14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43">
-        <v>1270</v>
+        <v>1184</v>
       </c>
       <c r="E43">
         <f t="shared" si="1"/>
@@ -17627,16 +17630,16 @@
       <c r="I43">
         <v>2019</v>
       </c>
-      <c r="J43" s="14"/>
+      <c r="J43" s="15"/>
     </row>
     <row r="44" spans="1:10" ht="14">
-      <c r="A44" s="14" t="s">
-        <v>48</v>
+      <c r="A44" s="15" t="s">
+        <v>49</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44">
-        <v>1184</v>
+        <v>755</v>
       </c>
       <c r="E44">
         <f t="shared" si="1"/>
@@ -17654,17 +17657,14 @@
       <c r="I44">
         <v>2019</v>
       </c>
-      <c r="J44" s="15"/>
-    </row>
-    <row r="45" spans="1:10" ht="14">
-      <c r="A45" s="15" t="s">
-        <v>49</v>
+      <c r="J44" s="16"/>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="16" t="s">
+        <v>37</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
-      <c r="D45">
-        <v>755</v>
-      </c>
       <c r="E45">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -17681,17 +17681,21 @@
       <c r="I45">
         <v>2019</v>
       </c>
-      <c r="J45" s="16"/>
+      <c r="J45" s="28"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
+      <c r="A46" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="B46" s="2">
+        <v>2</v>
+      </c>
+      <c r="C46" s="2">
+        <v>3</v>
+      </c>
       <c r="E46">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1968</v>
       </c>
       <c r="F46" s="24" t="s">
         <v>65</v>
@@ -17709,17 +17713,20 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="4" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="B47" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C47" s="2">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>984</v>
       </c>
       <c r="E47">
         <f t="shared" si="1"/>
-        <v>1968</v>
+        <v>157</v>
       </c>
       <c r="F47" s="24" t="s">
         <v>65</v>
@@ -17737,20 +17744,16 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B48" s="2">
-        <v>1</v>
-      </c>
-      <c r="C48" s="2">
-        <v>1</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
       <c r="D48">
-        <v>984</v>
+        <v>157</v>
       </c>
       <c r="E48">
         <f t="shared" si="1"/>
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="F48" s="24" t="s">
         <v>65</v>
@@ -17768,12 +17771,12 @@
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49">
-        <v>157</v>
+        <v>223</v>
       </c>
       <c r="E49">
         <f t="shared" si="1"/>
@@ -17791,17 +17794,14 @@
       <c r="I49">
         <v>2019</v>
       </c>
-      <c r="J49" s="28"/>
+      <c r="J49" s="16"/>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="4" t="s">
-        <v>22</v>
+      <c r="A50" s="16" t="s">
+        <v>38</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
-      <c r="D50">
-        <v>223</v>
-      </c>
       <c r="E50">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -17818,14 +17818,17 @@
       <c r="I50">
         <v>2019</v>
       </c>
-      <c r="J50" s="16"/>
+      <c r="J50" s="28"/>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="16" t="s">
-        <v>38</v>
+      <c r="A51" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
+      <c r="D51">
+        <v>484</v>
+      </c>
       <c r="E51">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -17842,17 +17845,15 @@
       <c r="I51">
         <v>2019</v>
       </c>
-      <c r="J51" s="28"/>
+      <c r="J51" s="16"/>
+      <c r="K51" s="26"/>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="4" t="s">
-        <v>34</v>
+      <c r="A52" s="16" t="s">
+        <v>39</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
-      <c r="D52">
-        <v>484</v>
-      </c>
       <c r="E52">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -17869,15 +17870,17 @@
       <c r="I52">
         <v>2019</v>
       </c>
-      <c r="J52" s="16"/>
-      <c r="K52" s="26"/>
+      <c r="J52" s="30"/>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="16" t="s">
-        <v>39</v>
+      <c r="A53" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
+      <c r="D53">
+        <v>769</v>
+      </c>
       <c r="E53">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -17894,16 +17897,16 @@
       <c r="I53">
         <v>2019</v>
       </c>
-      <c r="J53" s="30"/>
+      <c r="J53" s="17"/>
+      <c r="K53" s="26"/>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="6" t="s">
-        <v>25</v>
+      <c r="A54" s="17" t="s">
+        <v>41</v>
       </c>
       <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54">
-        <v>769</v>
+      <c r="C54" s="2">
+        <v>1</v>
       </c>
       <c r="E54">
         <f t="shared" si="1"/>
@@ -17921,16 +17924,16 @@
       <c r="I54">
         <v>2019</v>
       </c>
-      <c r="J54" s="17"/>
-      <c r="K54" s="26"/>
+      <c r="J54" s="30"/>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="17" t="s">
-        <v>41</v>
+      <c r="A55" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="B55" s="2"/>
-      <c r="C55" s="2">
-        <v>1</v>
+      <c r="C55" s="2"/>
+      <c r="D55">
+        <v>155</v>
       </c>
       <c r="E55">
         <f t="shared" si="1"/>
@@ -17948,17 +17951,15 @@
       <c r="I55">
         <v>2019</v>
       </c>
-      <c r="J55" s="30"/>
+      <c r="J55" s="17"/>
+      <c r="K55" s="26"/>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="6" t="s">
-        <v>26</v>
+      <c r="A56" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
-      <c r="D56">
-        <v>155</v>
-      </c>
       <c r="E56">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -17975,15 +17976,17 @@
       <c r="I56">
         <v>2019</v>
       </c>
-      <c r="J56" s="17"/>
-      <c r="K56" s="26"/>
-    </row>
-    <row r="57" spans="1:11">
-      <c r="A57" s="17" t="s">
-        <v>40</v>
+      <c r="J56" s="36"/>
+    </row>
+    <row r="57" spans="1:11" ht="14">
+      <c r="A57" s="40" t="s">
+        <v>68</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
+      <c r="D57">
+        <v>98</v>
+      </c>
       <c r="E57">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -18004,12 +18007,12 @@
     </row>
     <row r="58" spans="1:11" ht="14">
       <c r="A58" s="40" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="E58">
         <f t="shared" si="1"/>
@@ -18028,15 +18031,16 @@
         <v>2019</v>
       </c>
       <c r="J58" s="36"/>
+      <c r="K58" s="26"/>
     </row>
     <row r="59" spans="1:11" ht="14">
       <c r="A59" s="40" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59">
-        <v>59</v>
+        <v>112</v>
       </c>
       <c r="E59">
         <f t="shared" si="1"/>
@@ -18059,12 +18063,12 @@
     </row>
     <row r="60" spans="1:11" ht="14">
       <c r="A60" s="40" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60">
-        <v>112</v>
+        <v>225</v>
       </c>
       <c r="E60">
         <f t="shared" si="1"/>
@@ -18087,12 +18091,12 @@
     </row>
     <row r="61" spans="1:11" ht="14">
       <c r="A61" s="40" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61">
-        <v>225</v>
+        <v>80</v>
       </c>
       <c r="E61">
         <f t="shared" si="1"/>
@@ -18110,12 +18114,12 @@
       <c r="I61">
         <v>2019</v>
       </c>
-      <c r="J61" s="36"/>
+      <c r="J61" s="37"/>
       <c r="K61" s="26"/>
     </row>
-    <row r="62" spans="1:11" ht="14">
-      <c r="A62" s="40" t="s">
-        <v>72</v>
+    <row r="62" spans="1:11">
+      <c r="A62" s="37" t="s">
+        <v>73</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -18138,12 +18142,12 @@
       <c r="I62">
         <v>2019</v>
       </c>
-      <c r="J62" s="37"/>
+      <c r="J62" s="36"/>
       <c r="K62" s="26"/>
     </row>
-    <row r="63" spans="1:11">
-      <c r="A63" s="37" t="s">
-        <v>73</v>
+    <row r="63" spans="1:11" ht="14">
+      <c r="A63" s="40" t="s">
+        <v>74</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -18169,14 +18173,14 @@
       <c r="J63" s="36"/>
       <c r="K63" s="26"/>
     </row>
-    <row r="64" spans="1:11" ht="14">
+    <row r="64" spans="1:11" ht="28">
       <c r="A64" s="40" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="E64">
         <f t="shared" si="1"/>
@@ -18199,12 +18203,12 @@
     </row>
     <row r="65" spans="1:11" ht="28">
       <c r="A65" s="40" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E65">
         <f t="shared" si="1"/>
@@ -18222,17 +18226,15 @@
       <c r="I65">
         <v>2019</v>
       </c>
-      <c r="J65" s="36"/>
-      <c r="K65" s="26"/>
-    </row>
-    <row r="66" spans="1:11" ht="28">
-      <c r="A66" s="40" t="s">
-        <v>76</v>
+      <c r="J65" s="38"/>
+    </row>
+    <row r="66" spans="1:11" ht="14">
+      <c r="A66" s="41" t="s">
+        <v>77</v>
       </c>
       <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66">
-        <v>127</v>
+      <c r="C66" s="2">
+        <v>5</v>
       </c>
       <c r="E66">
         <f t="shared" si="1"/>
@@ -18250,15 +18252,17 @@
       <c r="I66">
         <v>2019</v>
       </c>
-      <c r="J66" s="38"/>
-    </row>
-    <row r="67" spans="1:11" ht="14">
-      <c r="A67" s="41" t="s">
-        <v>77</v>
+      <c r="J66" s="33"/>
+      <c r="K66" s="26"/>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" s="21" t="s">
+        <v>29</v>
       </c>
       <c r="B67" s="2"/>
-      <c r="C67" s="2">
-        <v>5</v>
+      <c r="C67" s="2"/>
+      <c r="D67">
+        <v>30</v>
       </c>
       <c r="E67">
         <f t="shared" si="1"/>
@@ -18281,12 +18285,14 @@
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="21" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
+      <c r="C68" s="2">
+        <v>30</v>
+      </c>
       <c r="D68">
-        <v>30</v>
+        <v>345</v>
       </c>
       <c r="E68">
         <f t="shared" si="1"/>
@@ -18304,23 +18310,24 @@
       <c r="I68">
         <v>2019</v>
       </c>
-      <c r="J68" s="33"/>
-      <c r="K68" s="26"/>
+      <c r="J68" s="34"/>
     </row>
     <row r="69" spans="1:11">
-      <c r="A69" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B69" s="2"/>
+      <c r="A69" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B69" s="2">
+        <v>4</v>
+      </c>
       <c r="C69" s="2">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D69">
-        <v>345</v>
+        <v>48</v>
       </c>
       <c r="E69">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>680</v>
       </c>
       <c r="F69" s="24" t="s">
         <v>65</v>
@@ -18334,24 +18341,24 @@
       <c r="I69">
         <v>2019</v>
       </c>
-      <c r="J69" s="34"/>
-    </row>
-    <row r="70" spans="1:11">
-      <c r="A70" s="22" t="s">
-        <v>50</v>
+      <c r="J69" s="10"/>
+    </row>
+    <row r="70" spans="1:11" ht="14">
+      <c r="A70" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="B70" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C70" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D70">
-        <v>48</v>
+        <v>170</v>
       </c>
       <c r="E70">
-        <f t="shared" si="1"/>
-        <v>680</v>
+        <f>D70*B70</f>
+        <v>1190</v>
       </c>
       <c r="F70" s="24" t="s">
         <v>65</v>
@@ -18365,24 +18372,15 @@
       <c r="I70">
         <v>2019</v>
       </c>
-      <c r="J70" s="10"/>
-    </row>
-    <row r="71" spans="1:11" ht="14">
-      <c r="A71" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B71" s="2">
-        <v>7</v>
-      </c>
-      <c r="C71" s="2">
-        <v>1</v>
-      </c>
-      <c r="D71">
-        <v>170</v>
+      <c r="J70" s="17"/>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" s="17" t="s">
+        <v>42</v>
       </c>
       <c r="E71">
-        <f>D71*B71</f>
-        <v>1190</v>
+        <f t="shared" ref="E71" si="2">D71*B71</f>
+        <v>0</v>
       </c>
       <c r="F71" s="24" t="s">
         <v>65</v>
@@ -18396,15 +18394,17 @@
       <c r="I71">
         <v>2019</v>
       </c>
-      <c r="J71" s="17"/>
+      <c r="J71" s="23"/>
     </row>
     <row r="72" spans="1:11">
-      <c r="A72" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E72">
-        <f t="shared" ref="E72" si="2">D72*B72</f>
-        <v>0</v>
+      <c r="A72" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B72">
+        <v>33172</v>
+      </c>
+      <c r="C72">
+        <v>44102</v>
       </c>
       <c r="F72" s="24" t="s">
         <v>65</v>
@@ -18416,30 +18416,6 @@
         <v>88</v>
       </c>
       <c r="I72">
-        <v>2019</v>
-      </c>
-      <c r="J72" s="23"/>
-    </row>
-    <row r="73" spans="1:11">
-      <c r="A73" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="B73">
-        <v>33172</v>
-      </c>
-      <c r="C73">
-        <v>44102</v>
-      </c>
-      <c r="F73" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="G73" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="H73" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="I73">
         <v>2019</v>
       </c>
     </row>
